--- a/자유수강권자 환불/논술1(교재).xlsx
+++ b/자유수강권자 환불/논술1(교재).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="86">
   <si>
     <t>주야</t>
   </si>
@@ -640,9 +640,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1467,10 +1469,10 @@
         <v>15</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>12</v>
@@ -1487,13 +1489,13 @@
         <v>68</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>12</v>
@@ -1513,10 +1515,10 @@
         <v>66</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>12</v>
@@ -1536,10 +1538,10 @@
         <v>66</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>12</v>
@@ -1553,16 +1555,16 @@
         <v>7</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>12</v>
@@ -1582,10 +1584,10 @@
         <v>15</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>12</v>
@@ -1605,10 +1607,10 @@
         <v>15</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>12</v>
@@ -1625,13 +1627,13 @@
         <v>77</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>12</v>
@@ -1648,13 +1650,13 @@
         <v>77</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>12</v>
@@ -1671,13 +1673,13 @@
         <v>77</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>12</v>
@@ -1694,41 +1696,18 @@
         <v>77</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="13.5">
-      <c r="A47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="1" t="s">
         <v>12</v>
       </c>
     </row>
